--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -717,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,6 +747,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2130,16 +2131,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
@@ -2148,7 +2149,7 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="C2" t="s">
         <v>7</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -2213,8 +2214,9 @@
       <c r="H3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -2233,8 +2235,9 @@
       <c r="H4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="C5" t="s">
         <v>86</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="C6" t="s">
         <v>70</v>
       </c>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dilan\Desktop\Bot-Compra-fase2_usa\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -15,539 +10,536 @@
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
     <sheet name="Compras" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="175">
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDEN </t>
+  </si>
+  <si>
+    <t>MODELO</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>OPERADOR</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
   <si>
     <t>Users_list</t>
   </si>
   <si>
+    <t>cualquier_cosa_12345@outlook.es</t>
+  </si>
+  <si>
+    <t>elttin13@gmail.com</t>
+  </si>
+  <si>
+    <t>florencia@axialtek.com</t>
+  </si>
+  <si>
+    <t>papichulo909@icloud.com</t>
+  </si>
+  <si>
+    <t>chulo@camlemtrade.com</t>
+  </si>
+  <si>
+    <t>mhitrade@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo@myy-tech.com</t>
+  </si>
+  <si>
+    <t>mhicorp.info@gmail.com</t>
+  </si>
+  <si>
+    <t>eduardoportales69@icloud.com</t>
+  </si>
+  <si>
+    <t>santifernandeznortes@gmail.com</t>
+  </si>
+  <si>
+    <t>edwardbelmonte@icloud.com</t>
+  </si>
+  <si>
+    <t>huesoloquito10@icloud.com</t>
+  </si>
+  <si>
+    <t>omaibetsalas10@gmail.com</t>
+  </si>
+  <si>
+    <t>nextpointllc10@gmail.com</t>
+  </si>
+  <si>
+    <t>sandravalentim2@icloud.com</t>
+  </si>
+  <si>
+    <t>catairigoin@icloud.com</t>
+  </si>
+  <si>
+    <t>marcelo@nextstore.com.ar</t>
+  </si>
+  <si>
+    <t>catuchula@icloud.com</t>
+  </si>
+  <si>
+    <t>omaibetsalas2@icloud.com</t>
+  </si>
+  <si>
+    <t>mamichula909@icloud.com</t>
+  </si>
+  <si>
+    <t>mirigoin2@gmail.com</t>
+  </si>
+  <si>
+    <t>bucetam59@gmail.com</t>
+  </si>
+  <si>
+    <t>mavalentin75@gmail.com</t>
+  </si>
+  <si>
+    <t>macairigoin059@gmail.com</t>
+  </si>
+  <si>
+    <t>diegonazar084@gmail.com</t>
+  </si>
+  <si>
+    <t>dkravetz4@gmail.com</t>
+  </si>
+  <si>
+    <t>santiagolaborda07@gmail.com</t>
+  </si>
+  <si>
+    <t>sandraabousleiman5@gmail.com</t>
+  </si>
+  <si>
+    <t>edwardbelmonte071@gmail.com</t>
+  </si>
+  <si>
+    <t>lucyt4489@gmail.com</t>
+  </si>
+  <si>
+    <t>villaparedesmoises0@gmail.com</t>
+  </si>
+  <si>
+    <t>eduardocordova52@yahoo.com</t>
+  </si>
+  <si>
+    <t>santifernandez516@yahoo.com</t>
+  </si>
+  <si>
+    <t>hugogrimenes@yahoo.com</t>
+  </si>
+  <si>
+    <t>yoglyporsy@yahoo.com</t>
+  </si>
+  <si>
+    <t>juanirigoin@yahoo.com</t>
+  </si>
+  <si>
+    <t>omaibethsalas@yahoo.com</t>
+  </si>
+  <si>
+    <t>rosanovielli@yahoo.com</t>
+  </si>
+  <si>
+    <t>eduardo.portales@yahoo.com</t>
+  </si>
+  <si>
+    <t>lucascomforti@yahoo.com</t>
+  </si>
+  <si>
+    <t>portaleseduardo@yahoo.com</t>
+  </si>
+  <si>
+    <t>dejtiara@yahoo.com</t>
+  </si>
+  <si>
+    <t>sandravalentim41@yahoo.com</t>
+  </si>
+  <si>
+    <t>florenciabuceta@yahoo.com</t>
+  </si>
+  <si>
+    <t>fernandoborrajo@yahoo.com</t>
+  </si>
+  <si>
+    <t>ROLANDOPRIETO12@outlook.com</t>
+  </si>
+  <si>
+    <t>ESTEBANQUINTERO11@outlook.com</t>
+  </si>
+  <si>
+    <t>ALEXISMATERA10@outlook.com</t>
+  </si>
+  <si>
+    <t>JORGEALFAGEME@outlook.com</t>
+  </si>
+  <si>
+    <t>ISMAELULLUA47@outlook.com</t>
+  </si>
+  <si>
+    <t>DIEGOKRAVETZ22@outlook.com</t>
+  </si>
+  <si>
+    <t>FLORENCIABUCETA@outlook.com</t>
+  </si>
+  <si>
+    <t>edwardbricena8@gmail.com</t>
+  </si>
+  <si>
+    <t>marcelo@catheltrade.com</t>
+  </si>
+  <si>
+    <t>asiercazalis5@gmail.com</t>
+  </si>
+  <si>
+    <t>micoliflor88@gmail.com</t>
+  </si>
+  <si>
+    <t>camiorlando6@gmail.com</t>
+  </si>
+  <si>
+    <t>miranda.gonzalo@aol.com</t>
+  </si>
+  <si>
+    <t>nnancyrodriguez08@gmail.com</t>
+  </si>
+  <si>
+    <t>tmaximotuero906@gmail.com</t>
+  </si>
+  <si>
+    <t>miguelblanco1267@gmail.com</t>
+  </si>
+  <si>
+    <t>nnilsagoncalvez@gmail.com</t>
+  </si>
+  <si>
+    <t>MILADYSVELASQUEZ@gmx.com</t>
+  </si>
+  <si>
+    <t>amaizjose@aol.com</t>
+  </si>
+  <si>
+    <t>dayana.ramos@aol.com</t>
+  </si>
+  <si>
+    <t>cochiteamo.eltoro@gmail.com</t>
+  </si>
+  <si>
+    <t>helenkhanjazz@gmail.com</t>
+  </si>
+  <si>
+    <t>consultoraeleven.fns@gmail.com</t>
+  </si>
+  <si>
     <t>Model_descripton</t>
   </si>
   <si>
+    <t>IPHONE 11 128GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 11 128GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 11 128GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 11 128GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 128GB YELLOW</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 256GB YELLOW</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 11 64GB YELLOW</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 128GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 128GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 128GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 256GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 256GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 256GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 256GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 512GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 512GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 512GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO 512GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 128GB PACIFIC BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 128GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 128GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 128GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 256GB PACIFIC BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 256GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 256GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 256GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 512GB PACIFIC BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 512GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 512GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 PRO MAX 512GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE SE 128GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE SE 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE SE 128GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE SE 256GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE SE 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE SE 256GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB CORAL</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE XR 128GB YELLOW</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB BLACK</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB CORAL</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB WHITE</t>
+  </si>
+  <si>
+    <t>IPHONE XR 64GB YELLOW</t>
+  </si>
+  <si>
     <t>Operador_list</t>
   </si>
   <si>
-    <t>cualquier_cosa_12345@outlook.es</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB BLACK</t>
-  </si>
-  <si>
     <t>UNLOCKED</t>
   </si>
   <si>
-    <t>elttin13@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB GREEN</t>
-  </si>
-  <si>
     <t>VERIZON</t>
   </si>
   <si>
-    <t>florencia@axialtek.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB PURPLE</t>
-  </si>
-  <si>
-    <t>papichulo909@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB RED</t>
-  </si>
-  <si>
-    <t>chulo@camlemtrade.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB WHITE</t>
-  </si>
-  <si>
-    <t>IPHONE 11 128GB YELLOW</t>
-  </si>
-  <si>
-    <t>mhitrade@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB BLACK</t>
-  </si>
-  <si>
-    <t>marcelo@myy-tech.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB GREEN</t>
-  </si>
-  <si>
-    <t>mhicorp.info@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB PURPLE</t>
-  </si>
-  <si>
-    <t>eduardoportales69@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB RED</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB WHITE</t>
-  </si>
-  <si>
-    <t>santifernandeznortes@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 256GB YELLOW</t>
-  </si>
-  <si>
-    <t>edwardbelmonte@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB BLACK</t>
-  </si>
-  <si>
-    <t>huesoloquito10@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB GREEN</t>
-  </si>
-  <si>
-    <t>omaibetsalas10@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB PURPLE</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB RED</t>
-  </si>
-  <si>
-    <t>nextpointllc10@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB WHITE</t>
-  </si>
-  <si>
-    <t>sandravalentim2@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 11 64GB YELLOW</t>
-  </si>
-  <si>
-    <t>catairigoin@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 128GB BLACK</t>
-  </si>
-  <si>
-    <t>marcelo@nextstore.com.ar</t>
-  </si>
-  <si>
-    <t>IPHONE 12 128GB BLUE</t>
-  </si>
-  <si>
-    <t>catuchula@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 128GB GREEN</t>
-  </si>
-  <si>
-    <t>omaibetsalas2@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 128GB RED</t>
-  </si>
-  <si>
-    <t>mamichula909@icloud.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 128GB WHITE</t>
-  </si>
-  <si>
-    <t>mirigoin2@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 256GB BLACK</t>
-  </si>
-  <si>
-    <t>bucetam59@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 256GB BLUE</t>
-  </si>
-  <si>
-    <t>mavalentin75@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 256GB GREEN</t>
-  </si>
-  <si>
-    <t>macairigoin059@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 256GB RED</t>
-  </si>
-  <si>
-    <t>diegonazar084@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 256GB WHITE</t>
-  </si>
-  <si>
-    <t>dkravetz4@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 64GB BLACK</t>
-  </si>
-  <si>
-    <t>santiagolaborda07@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 64GB BLUE</t>
-  </si>
-  <si>
-    <t>sandraabousleiman5@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 64GB GREEN</t>
-  </si>
-  <si>
-    <t>edwardbelmonte071@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 64GB RED</t>
-  </si>
-  <si>
-    <t>lucyt4489@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 64GB WHITE</t>
-  </si>
-  <si>
-    <t>villaparedesmoises0@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 128GB BLACK</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 128GB BLUE</t>
-  </si>
-  <si>
-    <t>eduardocordova52@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 128GB GREEN</t>
-  </si>
-  <si>
-    <t>santifernandez516@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 128GB RED</t>
-  </si>
-  <si>
-    <t>hugogrimenes@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 128GB WHITE</t>
-  </si>
-  <si>
-    <t>yoglyporsy@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 256GB BLACK</t>
-  </si>
-  <si>
-    <t>juanirigoin@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 256GB BLUE</t>
-  </si>
-  <si>
-    <t>omaibethsalas@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 256GB GREEN</t>
-  </si>
-  <si>
-    <t>rosanovielli@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 256GB RED</t>
-  </si>
-  <si>
-    <t>eduardo.portales@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 256GB WHITE</t>
-  </si>
-  <si>
-    <t>lucascomforti@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 64GB BLACK</t>
-  </si>
-  <si>
-    <t>portaleseduardo@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 64GB BLUE</t>
-  </si>
-  <si>
-    <t>dejtiara@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 64GB GREEN</t>
-  </si>
-  <si>
-    <t>sandravalentim41@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 64GB RED</t>
-  </si>
-  <si>
-    <t>florenciabuceta@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 MINI 64GB WHITE</t>
-  </si>
-  <si>
-    <t>fernandoborrajo@yahoo.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 128GB BLUE</t>
-  </si>
-  <si>
-    <t>ROLANDOPRIETO12@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 128GB GOLD</t>
-  </si>
-  <si>
-    <t>ESTEBANQUINTERO11@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 128GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>ALEXISMATERA10@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 128GB SILVER</t>
-  </si>
-  <si>
-    <t>JORGEALFAGEME@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 256GB BLUE</t>
-  </si>
-  <si>
-    <t>ISMAELULLUA47@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 256GB GOLD</t>
-  </si>
-  <si>
-    <t>DIEGOKRAVETZ22@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 256GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>FLORENCIABUCETA@outlook.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 256GB SILVER</t>
-  </si>
-  <si>
-    <t>edwardbricena8@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 512GB BLUE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 512GB GOLD</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 512GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO 512GB SILVER</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 128GB PACIFIC BLUE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 128GB GOLD</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 128GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 128GB SILVER</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 256GB PACIFIC BLUE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 256GB GOLD</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 256GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 256GB SILVER</t>
-  </si>
-  <si>
-    <t>marcelo@catheltrade.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 512GB PACIFIC BLUE</t>
-  </si>
-  <si>
-    <t>asiercazalis5@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 512GB GOLD</t>
-  </si>
-  <si>
-    <t>micoliflor88@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 512GB GRAPHITE</t>
-  </si>
-  <si>
-    <t>camiorlando6@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE 12 PRO MAX 512GB SILVER</t>
-  </si>
-  <si>
-    <t>miranda.gonzalo@aol.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 128GB BLACK</t>
-  </si>
-  <si>
-    <t>nnancyrodriguez08@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 128GB RED</t>
-  </si>
-  <si>
-    <t>tmaximotuero906@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 128GB WHITE</t>
-  </si>
-  <si>
-    <t>miguelblanco1267@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 256GB BLACK</t>
-  </si>
-  <si>
-    <t>nnilsagoncalvez@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 256GB RED</t>
-  </si>
-  <si>
-    <t>MILADYSVELASQUEZ@gmx.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 256GB WHITE</t>
-  </si>
-  <si>
-    <t>amaizjose@aol.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 64GB BLACK</t>
-  </si>
-  <si>
-    <t>dayana.ramos@aol.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 64GB RED</t>
-  </si>
-  <si>
-    <t>cochiteamo.eltoro@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE SE 64GB WHITE</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB BLACK</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB BLUE</t>
-  </si>
-  <si>
-    <t>helenkhanjazz@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB CORAL</t>
-  </si>
-  <si>
-    <t>consultoraeleven.fns@gmail.com</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB RED</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB WHITE</t>
-  </si>
-  <si>
-    <t>IPHONE XR 128GB YELLOW</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB BLACK</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB BLUE</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB CORAL</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB RED</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB WHITE</t>
-  </si>
-  <si>
-    <t>IPHONE XR 64GB YELLOW</t>
-  </si>
-  <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDEN </t>
-  </si>
-  <si>
-    <t>MODELO</t>
-  </si>
-  <si>
-    <t>OPERADOR</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>CANTIDAD</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>Compra2040</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
+    <t>Compras2040</t>
   </si>
 </sst>
 </file>
@@ -717,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -747,7 +739,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -767,7 +758,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla2" displayName="Tabla2" ref="A1:H1048576" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:H1048576" totalsRowShown="0">
   <autoFilter ref="A1:H1048576"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FECHA"/>
@@ -1087,52 +1078,52 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="E2" s="14">
         <v>44256</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>2</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E3" s="15">
         <v>649</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E4" s="15">
         <v>649</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="E5" s="15">
         <v>649</v>
@@ -1140,10 +1131,10 @@
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E6" s="15">
         <v>649</v>
@@ -1154,7 +1145,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="E7" s="15">
         <v>649</v>
@@ -1165,7 +1156,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="E8" s="15">
         <v>649</v>
@@ -1173,10 +1164,10 @@
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="E9" s="15">
         <v>749</v>
@@ -1184,10 +1175,10 @@
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="E10" s="15">
         <v>749</v>
@@ -1195,10 +1186,10 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="E11" s="15">
         <v>749</v>
@@ -1206,10 +1197,10 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="E12" s="15">
         <v>749</v>
@@ -1217,10 +1208,10 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E13" s="15">
         <v>749</v>
@@ -1228,10 +1219,10 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="E14" s="15">
         <v>749</v>
@@ -1239,10 +1230,10 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E15" s="15">
         <v>599</v>
@@ -1250,10 +1241,10 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E16" s="15">
         <v>599</v>
@@ -1261,10 +1252,10 @@
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="E17" s="15">
         <v>599</v>
@@ -1272,10 +1263,10 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E18" s="15">
         <v>599</v>
@@ -1283,10 +1274,10 @@
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="E19" s="15">
         <v>599</v>
@@ -1294,10 +1285,10 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="E20" s="15">
         <v>599</v>
@@ -1305,10 +1296,10 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="E21" s="15">
         <v>849</v>
@@ -1316,10 +1307,10 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E22" s="15">
         <v>849</v>
@@ -1327,10 +1318,10 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E23" s="15">
         <v>849</v>
@@ -1338,10 +1329,10 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E24" s="15">
         <v>849</v>
@@ -1349,10 +1340,10 @@
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="E25" s="15">
         <v>849</v>
@@ -1360,10 +1351,10 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="E26" s="15">
         <v>949</v>
@@ -1371,10 +1362,10 @@
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="4" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="E27" s="15">
         <v>949</v>
@@ -1382,10 +1373,10 @@
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="E28" s="15">
         <v>949</v>
@@ -1393,10 +1384,10 @@
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="4" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="E29" s="15">
         <v>949</v>
@@ -1404,10 +1395,10 @@
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E30" s="15">
         <v>949</v>
@@ -1415,10 +1406,10 @@
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E31" s="15">
         <v>799</v>
@@ -1426,10 +1417,10 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E32" s="15">
         <v>799</v>
@@ -1437,10 +1428,10 @@
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="E33" s="15">
         <v>799</v>
@@ -1448,10 +1439,10 @@
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E34" s="15">
         <v>799</v>
@@ -1459,10 +1450,10 @@
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="4" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E35" s="15">
         <v>799</v>
@@ -1470,10 +1461,10 @@
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="4" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="E36" s="15">
         <v>749</v>
@@ -1481,10 +1472,10 @@
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E37" s="15">
         <v>749</v>
@@ -1492,10 +1483,10 @@
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="4" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="E38" s="15">
         <v>749</v>
@@ -1503,10 +1494,10 @@
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="4" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="E39" s="15">
         <v>749</v>
@@ -1514,10 +1505,10 @@
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="E40" s="15">
         <v>749</v>
@@ -1525,10 +1516,10 @@
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="4" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E41" s="15">
         <v>849</v>
@@ -1536,10 +1527,10 @@
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E42" s="15">
         <v>849</v>
@@ -1547,10 +1538,10 @@
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="4" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="E43" s="15">
         <v>849</v>
@@ -1558,10 +1549,10 @@
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="4" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E44" s="15">
         <v>849</v>
@@ -1569,10 +1560,10 @@
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="4" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="E45" s="15">
         <v>849</v>
@@ -1580,10 +1571,10 @@
     </row>
     <row r="46" spans="2:5">
       <c r="B46" s="4" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="E46" s="15">
         <v>699</v>
@@ -1591,10 +1582,10 @@
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="E47" s="15">
         <v>699</v>
@@ -1602,10 +1593,10 @@
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="E48" s="15">
         <v>699</v>
@@ -1613,10 +1604,10 @@
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="4" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="E49" s="15">
         <v>699</v>
@@ -1624,10 +1615,10 @@
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="E50" s="15">
         <v>699</v>
@@ -1635,10 +1626,10 @@
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="4" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E51" s="15">
         <v>999</v>
@@ -1646,10 +1637,10 @@
     </row>
     <row r="52" spans="2:5">
       <c r="B52" s="4" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="E52" s="15">
         <v>999</v>
@@ -1657,10 +1648,10 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="4" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="E53" s="15">
         <v>999</v>
@@ -1668,10 +1659,10 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="4" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E54" s="15">
         <v>999</v>
@@ -1679,10 +1670,10 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="E55" s="15">
         <v>1099</v>
@@ -1690,10 +1681,10 @@
     </row>
     <row r="56" spans="2:5">
       <c r="B56" s="4" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E56" s="15">
         <v>1099</v>
@@ -1701,10 +1692,10 @@
     </row>
     <row r="57" spans="2:5">
       <c r="B57" s="4" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="E57" s="15">
         <v>1099</v>
@@ -1712,10 +1703,10 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="4" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E58" s="15">
         <v>1099</v>
@@ -1723,10 +1714,10 @@
     </row>
     <row r="59" spans="2:5">
       <c r="B59" s="4" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="E59" s="15">
         <v>1299</v>
@@ -1734,10 +1725,10 @@
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E60" s="15">
         <v>1299</v>
@@ -1745,10 +1736,10 @@
     </row>
     <row r="61" spans="2:5">
       <c r="B61" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E61" s="15">
         <v>1299</v>
@@ -1756,10 +1747,10 @@
     </row>
     <row r="62" spans="2:5" ht="15" customHeight="1">
       <c r="B62" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="E62" s="15">
         <v>1299</v>
@@ -1767,10 +1758,10 @@
     </row>
     <row r="63" spans="2:5" ht="17.25" customHeight="1">
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E63" s="15">
         <v>1099</v>
@@ -1778,10 +1769,10 @@
     </row>
     <row r="64" spans="2:5">
       <c r="B64" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E64" s="15">
         <v>1099</v>
@@ -1789,10 +1780,10 @@
     </row>
     <row r="65" spans="2:5" ht="17.25" customHeight="1">
       <c r="B65" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E65" s="15">
         <v>1099</v>
@@ -1800,10 +1791,10 @@
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="E66" s="15">
         <v>1099</v>
@@ -1811,10 +1802,10 @@
     </row>
     <row r="67" spans="2:5" ht="17.25" customHeight="1">
       <c r="B67" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E67" s="15">
         <v>1199</v>
@@ -1822,10 +1813,10 @@
     </row>
     <row r="68" spans="2:5">
       <c r="B68" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E68" s="15">
         <v>1199</v>
@@ -1833,10 +1824,10 @@
     </row>
     <row r="69" spans="2:5" ht="15" customHeight="1">
       <c r="B69" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="E69" s="15">
         <v>1199</v>
@@ -1844,10 +1835,10 @@
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E70" s="15">
         <v>1199</v>
@@ -1855,10 +1846,10 @@
     </row>
     <row r="71" spans="2:5" ht="17.25" customHeight="1">
       <c r="B71" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="E71" s="15">
         <v>1399</v>
@@ -1866,10 +1857,10 @@
     </row>
     <row r="72" spans="2:5">
       <c r="B72" s="3" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E72" s="15">
         <v>1399</v>
@@ -1877,10 +1868,10 @@
     </row>
     <row r="73" spans="2:5" ht="15" customHeight="1">
       <c r="B73" s="3" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="E73" s="15">
         <v>1399</v>
@@ -1888,10 +1879,10 @@
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="3" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E74" s="15">
         <v>1399</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="3" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E75" s="15">
         <v>449</v>
@@ -1910,10 +1901,10 @@
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="3" t="s">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E76" s="15">
         <v>449</v>
@@ -1921,10 +1912,10 @@
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="3" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="E77" s="15">
         <v>449</v>
@@ -1932,10 +1923,10 @@
     </row>
     <row r="78" spans="2:5">
       <c r="B78" s="3" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="E78" s="15">
         <v>549</v>
@@ -1943,10 +1934,10 @@
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="3" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="E79" s="15">
         <v>549</v>
@@ -1954,10 +1945,10 @@
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="3" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E80" s="15">
         <v>549</v>
@@ -1965,10 +1956,10 @@
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="3" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="E81" s="15">
         <v>399</v>
@@ -1976,10 +1967,10 @@
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="3" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="E82" s="15">
         <v>399</v>
@@ -1987,10 +1978,10 @@
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="5" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="E83" s="15">
         <v>399</v>
@@ -1998,10 +1989,10 @@
     </row>
     <row r="84" spans="2:5">
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E84" s="15">
         <v>549</v>
@@ -2009,10 +2000,10 @@
     </row>
     <row r="85" spans="2:5">
       <c r="B85" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="E85" s="15">
         <v>549</v>
@@ -2020,10 +2011,10 @@
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="6" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E86" s="15">
         <v>549</v>
@@ -2031,10 +2022,10 @@
     </row>
     <row r="87" spans="2:5">
       <c r="B87" s="7" t="s">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E87" s="15">
         <v>549</v>
@@ -2042,7 +2033,7 @@
     </row>
     <row r="88" spans="2:5">
       <c r="D88" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E88" s="15">
         <v>549</v>
@@ -2050,7 +2041,7 @@
     </row>
     <row r="89" spans="2:5">
       <c r="D89" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E89" s="15">
         <v>549</v>
@@ -2058,7 +2049,7 @@
     </row>
     <row r="90" spans="2:5">
       <c r="D90" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E90" s="15">
         <v>499</v>
@@ -2066,7 +2057,7 @@
     </row>
     <row r="91" spans="2:5">
       <c r="D91" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E91" s="15">
         <v>499</v>
@@ -2074,7 +2065,7 @@
     </row>
     <row r="92" spans="2:5">
       <c r="D92" s="9" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E92" s="15">
         <v>499</v>
@@ -2082,7 +2073,7 @@
     </row>
     <row r="93" spans="2:5">
       <c r="D93" s="9" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E93" s="15">
         <v>499</v>
@@ -2090,7 +2081,7 @@
     </row>
     <row r="94" spans="2:5">
       <c r="D94" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E94" s="15">
         <v>499</v>
@@ -2098,7 +2089,7 @@
     </row>
     <row r="95" spans="2:5">
       <c r="D95" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E95" s="15">
         <v>499</v>
@@ -2131,16 +2122,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="32.42578125" customWidth="1"/>
@@ -2149,61 +2140,58 @@
     <col min="8" max="8" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>174</v>
       </c>
       <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>174</v>
@@ -2211,20 +2199,16 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:8">
       <c r="C4" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>174</v>
@@ -2232,20 +2216,16 @@
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>175</v>
-      </c>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:8">
       <c r="C5" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>174</v>
@@ -2253,28 +2233,22 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:8">
       <c r="C6" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>174</v>
       </c>
       <c r="G6">
         <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2282,9 +2256,36 @@
     <hyperlink ref="E5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C1 E1 D1 C7:C1048576 D7:D1048576 E7:E1048576" listDataValidation="1"/>
+  </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BASE!$D$2:$D$95</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BASE!$G$3:$G$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BASE!$B$3:$B$87</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="181">
   <si>
     <t>FECHA</t>
   </si>
@@ -540,6 +540,24 @@
   </si>
   <si>
     <t>Compras2040</t>
+  </si>
+  <si>
+    <t>IPHONE 12 128GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 256GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 64GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 128GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 256GB PURPLE</t>
+  </si>
+  <si>
+    <t>IPHONE 12 MINI 64GB PURPLE</t>
   </si>
 </sst>
 </file>
@@ -1061,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G95"/>
+  <dimension ref="B2:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2094,6 +2112,42 @@
       <c r="E95" s="15">
         <v>499</v>
       </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="D96" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E96" s="15"/>
+    </row>
+    <row r="97" spans="4:5">
+      <c r="D97" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E97" s="15"/>
+    </row>
+    <row r="98" spans="4:5">
+      <c r="D98" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="4:5">
+      <c r="D99" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="4:5">
+      <c r="D100" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" s="15"/>
+    </row>
+    <row r="101" spans="4:5">
+      <c r="D101" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2124,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="181">
   <si>
     <t>FECHA</t>
   </si>
@@ -568,7 +568,7 @@
     <numFmt numFmtId="164" formatCode="mmm&quot;/&quot;d&quot;/&quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="[$$]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,12 +642,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -727,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -756,7 +750,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -776,8 +769,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:H1048576" totalsRowShown="0">
-  <autoFilter ref="A1:H1048576"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:H1048572" totalsRowShown="0">
+  <autoFilter ref="A1:H1048572"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="2" name="ORDEN "/>
@@ -1081,7 +1074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
@@ -2176,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2237,106 +2230,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>174</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="C6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>174</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1 E1 D1 C7:C1048576 D7:D1048576 E7:E1048576" listDataValidation="1"/>
+    <ignoredError sqref="C1 E1 D1 C3:C1048576 D3:D1048576 E3:E1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>BASE!$D$2:$D$95</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
+          <xm:sqref>C1 C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>BASE!$D$2:$D$101</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>BASE!$G$3:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:D1048572</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>BASE!$B$3:$B$87</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E1:E1048572</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -4,12 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
     <sheet name="Compras" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Model_descripton">Tabla1[]</definedName>
+    <definedName name="Operador_list">Tabla4[Operador_list]</definedName>
+    <definedName name="Users_list">Tabla3[Users_list]</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -564,11 +569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="mmm&quot;/&quot;d&quot;/&quot;yyyy"/>
-    <numFmt numFmtId="165" formatCode="[$$]#,##0.00"/>
-  </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,12 +640,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -678,27 +673,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -716,20 +696,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -737,25 +771,164 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF333333"/>
+        <name val="Helvetica"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF9900"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF2D2520"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -769,6 +942,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="D2:D101" totalsRowShown="0" tableBorderDxfId="8">
+  <autoFilter ref="D2:D101"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Model_descripton" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="B2:B87" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B2:B87"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Users_list"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="F2:F4" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+  <autoFilter ref="F2:F4"/>
+  <tableColumns count="1">
+    <tableColumn id="1" name="Operador_list"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:H1048572" totalsRowShown="0">
   <autoFilter ref="A1:H1048572"/>
   <tableColumns count="8">
@@ -1072,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G101"/>
+  <dimension ref="B2:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1084,1063 +1287,776 @@
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="4" max="4" width="63.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:6">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="14">
-        <v>44256</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="15">
-        <v>649</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="15">
-        <v>649</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:6">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="4" t="s">
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="15">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E19" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="15">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="3" t="s">
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="3" t="s">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="3" t="s">
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="3" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="15">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="4" t="s">
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E27" s="15">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="4" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="15">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="4" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E29" s="15">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="4" t="s">
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="15">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="4" t="s">
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="15">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="4" t="s">
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="15">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="4" t="s">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="15">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E34" s="15">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="4" t="s">
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="15">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="3" t="s">
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E37" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="4" t="s">
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E38" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="4" t="s">
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E40" s="15">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="4" t="s">
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="4" t="s">
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5">
-      <c r="B44" s="4" t="s">
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5">
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="15">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5">
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E46" s="15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5">
-      <c r="B47" s="4" t="s">
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E47" s="15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="4" t="s">
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="4" t="s">
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E50" s="15">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="4" t="s">
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E51" s="15">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="4" t="s">
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="15">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5">
-      <c r="B53" s="4" t="s">
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E53" s="15">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="4" t="s">
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E54" s="15">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="4" t="s">
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E55" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="4" t="s">
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" s="4" t="s">
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" s="4" t="s">
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" s="4" t="s">
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E59" s="15">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" s="3" t="s">
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="15">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" s="2" t="s">
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E61" s="15">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15" customHeight="1">
-      <c r="B62" s="2" t="s">
+    </row>
+    <row r="62" spans="2:4" ht="15" customHeight="1">
+      <c r="B62" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="15">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B63" s="2" t="s">
+    </row>
+    <row r="63" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5">
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="E64" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="65" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="E65" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="2" t="s">
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="E66" s="15">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="67" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B67" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E67" s="15">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="3" t="s">
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="15">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="15" customHeight="1">
-      <c r="B69" s="3" t="s">
+    </row>
+    <row r="69" spans="2:4" ht="15" customHeight="1">
+      <c r="B69" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E69" s="15">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="15">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="17.25" customHeight="1">
-      <c r="B71" s="2" t="s">
+    </row>
+    <row r="71" spans="2:4" ht="17.25" customHeight="1">
+      <c r="B71" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E71" s="15">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="3" t="s">
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E72" s="15">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" ht="15" customHeight="1">
-      <c r="B73" s="3" t="s">
+    </row>
+    <row r="73" spans="2:4" ht="15" customHeight="1">
+      <c r="B73" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="15">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="3" t="s">
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E74" s="15">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="3" t="s">
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="E75" s="15">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="3" t="s">
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="E76" s="15">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E77" s="15">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="3" t="s">
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="3" t="s">
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="E79" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="3" t="s">
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="E80" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="3" t="s">
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="E81" s="15">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="3" t="s">
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="15">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="5" t="s">
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E83" s="15">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="2" t="s">
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="D84" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E84" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="3" t="s">
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E85" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="6" t="s">
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="7" t="s">
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="D88" s="9" t="s">
+    </row>
+    <row r="88" spans="2:4">
+      <c r="D88" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E88" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="D89" s="9" t="s">
+    </row>
+    <row r="89" spans="2:4">
+      <c r="D89" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="E89" s="15">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="D90" s="9" t="s">
+    </row>
+    <row r="90" spans="2:4">
+      <c r="D90" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E90" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="D91" s="9" t="s">
+    </row>
+    <row r="91" spans="2:4">
+      <c r="D91" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E91" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="D92" s="9" t="s">
+    </row>
+    <row r="92" spans="2:4">
+      <c r="D92" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="D93" s="9" t="s">
+    </row>
+    <row r="93" spans="2:4">
+      <c r="D93" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E93" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="D94" s="9" t="s">
+    </row>
+    <row r="94" spans="2:4">
+      <c r="D94" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="E94" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="D95" s="9" t="s">
+    </row>
+    <row r="95" spans="2:4">
+      <c r="D95" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E95" s="15">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="D96" s="9" t="s">
+    </row>
+    <row r="96" spans="2:4">
+      <c r="D96" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="4:5">
-      <c r="D97" s="9" t="s">
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="4:5">
-      <c r="D98" s="9" t="s">
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="4:5">
-      <c r="D99" s="9" t="s">
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="4:5">
-      <c r="D100" s="9" t="s">
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="4:5">
-      <c r="D101" s="9" t="s">
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2164,6 +2080,11 @@
     <hyperlink ref="B84" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId21"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -2171,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2231,43 +2152,24 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>Users_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>Operador_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>Model_descripton</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1 E1 D1 C3:C1048576 D3:D1048576 E3:E1048576" listDataValidation="1"/>
+    <ignoredError sqref="D1:E1" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>BASE!$D$2:$D$95</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1 C3:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>BASE!$D$2:$D$101</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>BASE!$G$3:$G$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048572</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>BASE!$B$3:$B$87</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048572</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
   <si>
     <t>FECHA</t>
   </si>
@@ -1167,8 +1167,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G1048572" totalsRowShown="0">
-  <autoFilter ref="A1:G1048572"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G1048560" totalsRowShown="0">
+  <autoFilter ref="A1:G1048560"/>
   <tableColumns count="7">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="3" name="MODELO"/>
@@ -2315,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,245 +2376,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" t="s">
-        <v>176</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048573:C1048576 B1:B1048572">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048561:C1048576 B1:B1048560">
       <formula1>Lista_Modelos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048573:D1048576 C1:C1048572">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048561:D1048576 C1:C1048560">
       <formula1>Lista_Operadores</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048573:E1048576 D1:D1048572">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048561:E1048576 D1:D1048560">
       <formula1>Lista_Usuarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1048573:G1048576 F1:F1048572">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1048561:G1048576 F1:F1048560">
       <formula1>Lista_Opciones</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 C1 D1 F1 F14:F1048572 C14:C1048572 D1048573:D1048576 G1048573:G1048576" listDataValidation="1"/>
+    <ignoredError sqref="B1 C1 D1 F1 F3:F1048560 C3:C1048560 D1048561:D1048576 G1048561:G1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="193">
   <si>
     <t>FECHA</t>
   </si>
@@ -536,12 +536,6 @@
     <t>VERIZON</t>
   </si>
   <si>
-    <t>Compra2040</t>
-  </si>
-  <si>
-    <t>ORDER OPTIONS</t>
-  </si>
-  <si>
     <t>Order_options</t>
   </si>
   <si>
@@ -591,6 +585,21 @@
   </si>
   <si>
     <t>IPHONE 12 MINI 64GB PURPLE</t>
+  </si>
+  <si>
+    <t>OPCIONAL 1</t>
+  </si>
+  <si>
+    <t>OPCIONAL 2</t>
+  </si>
+  <si>
+    <t>OPCIONAL 3</t>
+  </si>
+  <si>
+    <t>OPCIONAL 4</t>
+  </si>
+  <si>
+    <t>STORE</t>
   </si>
 </sst>
 </file>
@@ -1167,16 +1176,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:G1048560" totalsRowShown="0">
-  <autoFilter ref="A1:G1048560"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K1048557" totalsRowShown="0">
+  <autoFilter ref="A1:K1048557"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="3" name="MODELO"/>
     <tableColumn id="4" name="OPERADOR"/>
     <tableColumn id="5" name="USER"/>
     <tableColumn id="6" name="PASSWORD"/>
-    <tableColumn id="9" name="ORDER OPTIONS"/>
     <tableColumn id="7" name="CANTIDAD"/>
+    <tableColumn id="8" name="STORE"/>
+    <tableColumn id="9" name="OPCIONAL 1"/>
+    <tableColumn id="10" name="OPCIONAL 2"/>
+    <tableColumn id="11" name="OPCIONAL 3"/>
+    <tableColumn id="12" name="OPCIONAL 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1489,13 +1502,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>168</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1509,7 +1522,7 @@
         <v>169</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -1523,7 +1536,7 @@
         <v>170</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1534,7 +1547,7 @@
         <v>77</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1545,7 +1558,7 @@
         <v>78</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1556,7 +1569,7 @@
         <v>79</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1567,7 +1580,7 @@
         <v>80</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1578,7 +1591,7 @@
         <v>81</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1589,7 +1602,7 @@
         <v>82</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1600,7 +1613,7 @@
         <v>83</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1704,7 +1717,7 @@
         <v>25</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
@@ -1752,7 +1765,7 @@
         <v>31</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -1800,7 +1813,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -1848,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
@@ -1896,7 +1909,7 @@
         <v>48</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
@@ -1944,7 +1957,7 @@
         <v>54</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -2315,10 +2328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,12 +2341,15 @@
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2350,51 +2366,43 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
+        <v>192</v>
+      </c>
+      <c r="H1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048561:C1048576 B1:B1048560">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048558:C1048576 B1:B1048557">
       <formula1>Lista_Modelos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048561:D1048576 C1:C1048560">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048558:D1048576 C1:C1048557">
       <formula1>Lista_Operadores</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048561:E1048576 D1:D1048560">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048558:E1048576 D1:D1048557">
       <formula1>Lista_Usuarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1048561:G1048576 F1:F1048560">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048558:F1048576 G1:K1048576">
       <formula1>Lista_Opciones</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1 C1 D1 F1 F3:F1048560 C3:C1048560 D1048561:D1048576 G1048561:G1048576" listDataValidation="1"/>
+    <ignoredError sqref="B1:C1 C2:C1048557 H1:I1 H2:H1048576 J1 J2:J1048576 K1 K2:K1048576 G1 G2:G1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="256">
   <si>
     <t>FECHA</t>
   </si>
@@ -600,6 +600,195 @@
   </si>
   <si>
     <t>STORE</t>
+  </si>
+  <si>
+    <t>cualquier_cosa_67890@outlook.es</t>
+  </si>
+  <si>
+    <t>IPHONE 13 128GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 128GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 128GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB PINK</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB RED</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 128GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 128GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 128GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 128GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 256GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 256GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 256GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 256GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 512GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 512GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 512GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 512GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 1TB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 1TB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 1TB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 1TB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 128GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 128GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 128GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 128GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 256GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 256GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 256GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 256GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 512GB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 512GB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 512GB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 512GB GRAPHITE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 1TB SIERRA BLUE</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 1TB SILVER</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 1TB GOLD</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 1TB GRAPHITE</t>
   </si>
 </sst>
 </file>
@@ -796,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -830,6 +1019,7 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1133,8 +1323,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B2:B87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B88" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B2:B88"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Users_list" dataDxfId="10"/>
   </tableColumns>
@@ -1143,10 +1333,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D101" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="D2:D101"/>
-  <sortState ref="D3:D101">
-    <sortCondition ref="D2:D101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D163" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="D2:D163"/>
+  <sortState ref="D3:D163">
+    <sortCondition ref="D2:D163"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="Model_list" dataDxfId="6"/>
@@ -1176,8 +1366,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K1048557" totalsRowShown="0">
-  <autoFilter ref="A1:K1048557"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:K1048550" totalsRowShown="0">
+  <autoFilter ref="A1:K1048550"/>
   <tableColumns count="11">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="3" name="MODELO"/>
@@ -1482,10 +1672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H101"/>
+  <dimension ref="B2:H163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,125 +2362,438 @@
       <c r="B81" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>147</v>
+      <c r="D81" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>148</v>
+      <c r="D82" s="20" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="1" t="s">
-        <v>149</v>
+      <c r="D83" s="20" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>150</v>
+      <c r="D84" s="20" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>151</v>
+      <c r="D85" s="20" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>152</v>
+      <c r="D86" s="20" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D90" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D91" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D92" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D94" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D95" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D96" s="20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="20" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107" s="20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="20" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="20" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D88" s="1" t="s">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="1" t="s">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D90" s="1" t="s">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D91" s="1" t="s">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D92" s="1" t="s">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D93" s="1" t="s">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D94" s="1" t="s">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D95" s="1" t="s">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="1" t="s">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="1" t="s">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="1" t="s">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="1" t="s">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="1" t="s">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D101" s="1" t="s">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2314,14 +2817,15 @@
     <hyperlink ref="B66" r:id="rId16"/>
     <hyperlink ref="B71" r:id="rId17"/>
     <hyperlink ref="B84" r:id="rId18"/>
+    <hyperlink ref="B88" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
   <tableParts count="4">
-    <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
     <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2331,7 +2835,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,23 +2890,23 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048558:C1048576 B1:B1048557">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048551:C1048576 B1:B1048550">
       <formula1>Lista_Modelos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048558:D1048576 C1:C1048557">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048551:D1048576 C1:C1048550">
       <formula1>Lista_Operadores</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048558:E1048576 D1:D1048557">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048551:E1048576 D1:D1048550">
       <formula1>Lista_Usuarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048558:F1048576 G1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048551:F1048576 G1:K1048576">
       <formula1>Lista_Opciones</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:C1 C2:C1048557 H1:I1 H2:H1048576 J1 J2:J1048576 K1 K2:K1048576 G1 G2:G1048576" listDataValidation="1"/>
+    <ignoredError sqref="B1:C1 C2:C1048550 H1:I1 J1 K1 G1 G2:G1048576 H2:H1048576 J2:J1048576 K2:K1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="278">
   <si>
     <t>FECHA</t>
   </si>
@@ -815,14 +815,53 @@
     <t>OPCIONAL 10</t>
   </si>
   <si>
-    <t>cualquier_cosa_12345@outlook.es</t>
+    <t>IPHONE 13 128GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 256GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 512GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 128GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 256GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 MINI 512GB GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 128GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 256GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 512GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO 1TB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 128GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 256GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 512GB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>IPHONE 13 PRO MAX 1TB ALPINE GREEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -888,14 +927,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1010,11 +1041,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1048,10 +1078,8 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1352,8 +1380,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B2:B87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B2:B86"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Users_list" dataDxfId="10"/>
   </tableColumns>
@@ -1362,10 +1390,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D163" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="D2:D163"/>
-  <sortState ref="D3:D163">
-    <sortCondition ref="D2:D163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D177" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="D2:D177"/>
+  <sortState ref="D3:D177">
+    <sortCondition ref="D2:D177"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="Model_list" dataDxfId="6"/>
@@ -1395,8 +1423,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q1048544" totalsRowShown="0">
-  <autoFilter ref="A1:Q1048544"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q1048536" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048536"/>
   <tableColumns count="17">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="3" name="MODELO"/>
@@ -1707,10 +1735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H163"/>
+  <dimension ref="B2:H177"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,9 +1765,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>7</v>
-      </c>
+      <c r="B3" s="10"/>
       <c r="D3" s="1" t="s">
         <v>74</v>
       </c>
@@ -2418,7 +2444,7 @@
         <v>71</v>
       </c>
       <c r="D82" s="19" t="s">
-        <v>194</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
@@ -2426,7 +2452,7 @@
         <v>59</v>
       </c>
       <c r="D83" s="19" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
@@ -2434,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
@@ -2442,7 +2468,7 @@
         <v>72</v>
       </c>
       <c r="D85" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
@@ -2450,425 +2476,490 @@
         <v>73</v>
       </c>
       <c r="D86" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D87" s="19" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D88" s="19" t="s">
-        <v>197</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D89" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D90" s="19" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D91" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D92" s="19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D93" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D94" s="19" t="s">
-        <v>206</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D95" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D96" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D97" s="19" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D98" s="19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D99" s="19" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D100" s="19" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D101" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D102" s="19" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D103" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D104" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D105" s="19" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D106" s="19" t="s">
-        <v>218</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D107" s="19" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D108" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D109" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D110" s="19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D111" s="19" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D112" s="19" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D113" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="114" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D114" s="19" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D115" s="19" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D116" s="19" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="117" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D117" s="19" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="118" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D118" s="19" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D119" s="19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D120" s="19" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D121" s="19" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D122" s="19" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D123" s="19" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D124" s="19" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D125" s="19" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="126" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D126" s="19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="127" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D127" s="19" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D128" s="19" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D129" s="19" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="130" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D130" s="19" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="131" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D131" s="19" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D132" s="19" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D133" s="19" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="134" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D134" s="19" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="135" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D135" s="19" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D136" s="19" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D137" s="19" t="s">
-        <v>242</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D138" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D139" s="19" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="140" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D140" s="19" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D141" s="19" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="142" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D142" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144" s="19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145" s="19" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146" s="19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148" s="19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149" s="19" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150" s="19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153" s="19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155" s="19" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156" s="19" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D143" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D144" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D145" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D146" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D147" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D148" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D149" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D150" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D151" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D152" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D153" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D154" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D155" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D156" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="157" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D157" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D158" s="1" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D160" s="1" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="1" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D163" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177" s="1" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B11" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B60" r:id="rId10"/>
-    <hyperlink ref="B61" r:id="rId11"/>
-    <hyperlink ref="B62" r:id="rId12"/>
-    <hyperlink ref="B63" r:id="rId13"/>
-    <hyperlink ref="B64" r:id="rId14"/>
-    <hyperlink ref="B65" r:id="rId15"/>
-    <hyperlink ref="B70" r:id="rId16"/>
-    <hyperlink ref="B83" r:id="rId17"/>
-    <hyperlink ref="B87" r:id="rId18"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B13" r:id="rId4"/>
+    <hyperlink ref="B14" r:id="rId5"/>
+    <hyperlink ref="B15" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B17" r:id="rId8"/>
+    <hyperlink ref="B60" r:id="rId9"/>
+    <hyperlink ref="B61" r:id="rId10"/>
+    <hyperlink ref="B62" r:id="rId11"/>
+    <hyperlink ref="B63" r:id="rId12"/>
+    <hyperlink ref="B64" r:id="rId13"/>
+    <hyperlink ref="B65" r:id="rId14"/>
+    <hyperlink ref="B70" r:id="rId15"/>
+    <hyperlink ref="B83" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="4">
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
-    <tablePart r:id="rId22"/>
-    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2877,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,23 +3046,23 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048545:C1048576 B1:B1048544">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048537:C1048576 B1:B1048536">
       <formula1>Lista_Modelos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048545:D1048576 C1:C1048544">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048537:D1048576 C1:C1048536">
       <formula1>Lista_Operadores</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048545:E1048576 D1:D1048544">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048537:E1048576 D1:D1048536">
       <formula1>Lista_Usuarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048545:F1048576 G1:K1048576 L1:Q1048544">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048537:F1048576 L1:Q1048536 G1:K1048576">
       <formula1>Lista_Opciones</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:C1 C2:C1048544 H1:I1 J1 K1:Q1 G1 G2:G1048576 K2:K1048576 H2:H1048576 J2:J1048576" listDataValidation="1"/>
+    <ignoredError sqref="B1:C1 C2:C1048536 H1:I1 J1 K1:Q1 G1 G2:G1048576 H2:H1048576 K2:K1048576 J2:J1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/BOT.xlsx
+++ b/BOT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASE" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="285">
   <si>
     <t>FECHA</t>
   </si>
@@ -855,13 +855,34 @@
   </si>
   <si>
     <t>IPHONE 13 PRO MAX 1TB ALPINE GREEN</t>
+  </si>
+  <si>
+    <t>cualquier_cosa_12345@outlook.es</t>
+  </si>
+  <si>
+    <t>IPHONE SE 128GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE SE 256GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB MIDNIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE SE 128GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE SE 256GB STARLIGHT</t>
+  </si>
+  <si>
+    <t>IPHONE SE 64GB STARLIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,6 +948,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1041,10 +1070,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1078,8 +1108,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
@@ -1380,8 +1412,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B86" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="B2:B86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Usuarios" displayName="Usuarios" ref="B2:B87" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="B2:B87"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Users_list" dataDxfId="10"/>
   </tableColumns>
@@ -1390,10 +1422,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D177" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="D2:D177"/>
-  <sortState ref="D3:D177">
-    <sortCondition ref="D2:D177"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Modelos" displayName="Modelos" ref="D2:D183" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="D2:D183"/>
+  <sortState ref="D3:D183">
+    <sortCondition ref="D2:D183"/>
   </sortState>
   <tableColumns count="1">
     <tableColumn id="1" name="Model_list" dataDxfId="6"/>
@@ -1423,8 +1455,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q1048536" totalsRowShown="0">
-  <autoFilter ref="A1:Q1048536"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:Q1048533" totalsRowShown="0">
+  <autoFilter ref="A1:Q1048533"/>
   <tableColumns count="17">
     <tableColumn id="1" name="FECHA"/>
     <tableColumn id="3" name="MODELO"/>
@@ -1735,10 +1767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H177"/>
+  <dimension ref="B2:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,6 +2512,9 @@
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="21" t="s">
+        <v>278</v>
+      </c>
       <c r="D87" s="19" t="s">
         <v>198</v>
       </c>
@@ -2835,102 +2870,132 @@
       </c>
     </row>
     <row r="158" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D158" s="1" t="s">
-        <v>147</v>
+      <c r="D158" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D159" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="160" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D160" s="1" t="s">
-        <v>149</v>
+      <c r="D160" s="19" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="161" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D161" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D162" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="163" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D163" s="1" t="s">
-        <v>152</v>
+      <c r="D163" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D164" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="165" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D165" s="1" t="s">
-        <v>154</v>
+      <c r="D165" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="166" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D166" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D167" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="168" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D168" s="1" t="s">
-        <v>157</v>
+      <c r="D168" s="19" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D169" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="170" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D170" s="1" t="s">
-        <v>159</v>
+      <c r="D170" s="19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="171" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D171" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D172" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="173" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D173" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D174" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D175" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D176" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183" s="1" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2952,14 +3017,15 @@
     <hyperlink ref="B65" r:id="rId14"/>
     <hyperlink ref="B70" r:id="rId15"/>
     <hyperlink ref="B83" r:id="rId16"/>
+    <hyperlink ref="B87" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
   <tableParts count="4">
-    <tablePart r:id="rId18"/>
     <tablePart r:id="rId19"/>
     <tablePart r:id="rId20"/>
     <tablePart r:id="rId21"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2968,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3046,23 +3112,23 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048537:C1048576 B1:B1048536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1048534:C1048576 B1:B1048533">
       <formula1>Lista_Modelos</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048537:D1048576 C1:C1048536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1048534:D1048576 C1:C1048533">
       <formula1>Lista_Operadores</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048537:E1048576 D1:D1048536">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1048534:E1048576 D1:D1048533">
       <formula1>Lista_Usuarios</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048537:F1048576 L1:Q1048536 G1:K1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1048534:F1048576 G1:K1048576 L1:Q1048533">
       <formula1>Lista_Opciones</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:C1 C2:C1048536 H1:I1 J1 K1:Q1 G1 G2:G1048576 H2:H1048576 K2:K1048576 J2:J1048576" listDataValidation="1"/>
+    <ignoredError sqref="B1:C1 C2:C1048533 H1:I1 J1 K1:Q1 G1 G2:G1048576 H2:H1048576 K2:K1048576 J2:J1048576" listDataValidation="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
